--- a/src/main/resources/templates/xls/resumption_item.xlsx
+++ b/src/main/resources/templates/xls/resumption_item.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Resumption" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Номер Артикула</t>
   </si>
@@ -49,6 +50,18 @@
   </si>
   <si>
     <t>${dateFormatter.format(item.invoice.sellDate)}</t>
+  </si>
+  <si>
+    <t>Ціна</t>
+  </si>
+  <si>
+    <t>${item.invoiceItem.price}</t>
+  </si>
+  <si>
+    <t>Вартість</t>
+  </si>
+  <si>
+    <t>${item.count.multiply(item.invoiceItem.price)}</t>
   </si>
 </sst>
 </file>
@@ -224,12 +237,18 @@
     <cellStyle name="Użyte hiperłącze" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Użyte hiperłącze" xfId="56" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -237,14 +256,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E1048576"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:G1048576" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:G1048576"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="Номер Артикула"/>
-    <tableColumn id="2" name="К-сть" dataDxfId="0"/>
-    <tableColumn id="3" name="Фактура"/>
-    <tableColumn id="4" name="Парагон"/>
-    <tableColumn id="5" name="Дата продажу"/>
+    <tableColumn id="2" name="К-сть" dataDxfId="3"/>
+    <tableColumn id="3" name="Ціна" dataDxfId="2"/>
+    <tableColumn id="4" name="Вартість" dataDxfId="1"/>
+    <tableColumn id="5" name="Фактура"/>
+    <tableColumn id="6" name="Парагон"/>
+    <tableColumn id="7" name="Дата продажу"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -572,18 +593,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="24.33203125" customWidth="1"/>
+    <col min="2" max="4" width="17.1640625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,29 +612,41 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
     </row>
